--- a/excel/ets_forecast.xlsx
+++ b/excel/ets_forecast.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analytics\Projects\forecast_cargo_flow\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analytics\Projects\forecast_cargo_flow\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6BBBCF3B-AEE4-41F7-A323-BA367A7B7417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B5EDED-5F78-42CD-9185-E84B07B90D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ошибка прогноза" sheetId="2" r:id="rId1"/>
     <sheet name="sample_csu_since_2019" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>r_date</t>
   </si>
@@ -55,11 +66,21 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>Квадрат ошибки</t>
+  </si>
+  <si>
+    <t>RMSE =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,18 +591,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -591,22 +607,27 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -649,6 +670,7 @@
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Финансовый" xfId="43" builtinId="3"/>
     <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -960,12 +982,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I816"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H795" sqref="H795"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,44 +995,56 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8">
+      <c r="H1" s="6">
         <f>AVERAGE(D764:D815)</f>
         <v>6871.3180502404239</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7">
+      <c r="J1" s="5">
         <f>AVERAGE(E764:E815)</f>
         <v>0.13954617105399214</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="6">
+        <f>SQRT(AVERAGE(F764:F815))</f>
+        <v>9034.434138870276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43467</v>
       </c>
@@ -1026,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43468</v>
       </c>
@@ -1034,7 +1068,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43469</v>
       </c>
@@ -1042,7 +1076,7 @@
         <v>35128</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43470</v>
       </c>
@@ -1050,7 +1084,7 @@
         <v>41658</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43471</v>
       </c>
@@ -1058,7 +1092,7 @@
         <v>22188</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43472</v>
       </c>
@@ -1066,7 +1100,7 @@
         <v>9946</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43473</v>
       </c>
@@ -1074,7 +1108,7 @@
         <v>26993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43474</v>
       </c>
@@ -1082,7 +1116,7 @@
         <v>37398</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43475</v>
       </c>
@@ -1090,7 +1124,7 @@
         <v>51694</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43476</v>
       </c>
@@ -1098,7 +1132,7 @@
         <v>51256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43477</v>
       </c>
@@ -1106,7 +1140,7 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43478</v>
       </c>
@@ -1114,7 +1148,7 @@
         <v>28681</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43479</v>
       </c>
@@ -1122,7 +1156,7 @@
         <v>39518</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43480</v>
       </c>
@@ -7018,7 +7052,7 @@
         <v>64401</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>44217</v>
       </c>
@@ -7026,7 +7060,7 @@
         <v>61681</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>44218</v>
       </c>
@@ -7034,7 +7068,7 @@
         <v>54379</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>44219</v>
       </c>
@@ -7042,7 +7076,7 @@
         <v>59156</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>44220</v>
       </c>
@@ -7050,7 +7084,7 @@
         <v>43157</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>44221</v>
       </c>
@@ -7058,7 +7092,7 @@
         <v>38620</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>44222</v>
       </c>
@@ -7066,7 +7100,7 @@
         <v>67631</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>44223</v>
       </c>
@@ -7074,7 +7108,7 @@
         <v>64901</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>44224</v>
       </c>
@@ -7082,7 +7116,7 @@
         <v>67045</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>44225</v>
       </c>
@@ -7090,7 +7124,7 @@
         <v>53851</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>44226</v>
       </c>
@@ -7098,7 +7132,7 @@
         <v>57322</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>44227</v>
       </c>
@@ -7106,1063 +7140,1275 @@
         <v>34767</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A764" s="12">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="7">
         <v>44228</v>
       </c>
-      <c r="B764" s="13">
+      <c r="B764" s="8">
         <f>_xlfn.FORECAST.ETS(A764,$B$2:B763,$A$2:A763,7,1)</f>
         <v>38363.992164625044</v>
       </c>
-      <c r="C764" s="13">
+      <c r="C764" s="8">
         <v>42153</v>
       </c>
-      <c r="D764" s="13">
-        <f>ABS(B764-C764)</f>
+      <c r="D764" s="8">
+        <f t="shared" ref="D764:D795" si="0">ABS(B764-C764)</f>
         <v>3789.0078353749559</v>
       </c>
-      <c r="E764" s="14">
-        <f>ABS(B764-C764)/B764</f>
+      <c r="E764" s="9">
+        <f t="shared" ref="E764:E795" si="1">ABS(B764-C764)/B764</f>
         <v>9.8764691096688118E-2</v>
       </c>
-    </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A765" s="12">
+      <c r="F764" s="16">
+        <f>(B764-C764)^2</f>
+        <v>14356580.37653281</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="7">
         <v>44229</v>
       </c>
-      <c r="B765" s="13">
+      <c r="B765" s="8">
         <f>_xlfn.FORECAST.ETS(A765,$B$2:B764,$A$2:A764,7,1)</f>
         <v>64755.885123695232</v>
       </c>
-      <c r="C765" s="13">
+      <c r="C765" s="8">
         <v>59730</v>
       </c>
-      <c r="D765" s="13">
-        <f>ABS(B765-C765)</f>
+      <c r="D765" s="8">
+        <f t="shared" si="0"/>
         <v>5025.8851236952323</v>
       </c>
-      <c r="E765" s="14">
-        <f>ABS(B765-C765)/B765</f>
+      <c r="E765" s="9">
+        <f t="shared" si="1"/>
         <v>7.7612793247978928E-2</v>
       </c>
-    </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A766" s="12">
+      <c r="F765" s="16">
+        <f t="shared" ref="F765:F816" si="2">(B765-C765)^2</f>
+        <v>25259521.276581042</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="7">
         <v>44230</v>
       </c>
-      <c r="B766" s="13">
+      <c r="B766" s="8">
         <f>_xlfn.FORECAST.ETS(A766,$B$2:B765,$A$2:A765,7,1)</f>
         <v>61008.198917151203</v>
       </c>
-      <c r="C766" s="13">
+      <c r="C766" s="8">
         <v>67275</v>
       </c>
-      <c r="D766" s="13">
-        <f>ABS(B766-C766)</f>
+      <c r="D766" s="8">
+        <f t="shared" si="0"/>
         <v>6266.8010828487968</v>
       </c>
-      <c r="E766" s="14">
-        <f>ABS(B766-C766)/B766</f>
+      <c r="E766" s="9">
+        <f t="shared" si="1"/>
         <v>0.10272063745659953</v>
       </c>
-    </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A767" s="12">
+      <c r="F766" s="16">
+        <f t="shared" si="2"/>
+        <v>39272795.811994851</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="7">
         <v>44231</v>
       </c>
-      <c r="B767" s="13">
+      <c r="B767" s="8">
         <f>_xlfn.FORECAST.ETS(A767,$B$2:B766,$A$2:A766,7,1)</f>
         <v>60090.700902611483</v>
       </c>
-      <c r="C767" s="13">
+      <c r="C767" s="8">
         <v>61666</v>
       </c>
-      <c r="D767" s="13">
-        <f>ABS(B767-C767)</f>
+      <c r="D767" s="8">
+        <f t="shared" si="0"/>
         <v>1575.2990973885171</v>
       </c>
-      <c r="E767" s="14">
-        <f>ABS(B767-C767)/B767</f>
+      <c r="E767" s="9">
+        <f t="shared" si="1"/>
         <v>2.6215355682763491E-2</v>
       </c>
-    </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A768" s="12">
+      <c r="F767" s="16">
+        <f t="shared" si="2"/>
+        <v>2481567.2462330768</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" s="7">
         <v>44232</v>
       </c>
-      <c r="B768" s="13">
+      <c r="B768" s="8">
         <f>_xlfn.FORECAST.ETS(A768,$B$2:B767,$A$2:A767,7,1)</f>
         <v>49119.85725990581</v>
       </c>
-      <c r="C768" s="13">
+      <c r="C768" s="8">
         <v>61804</v>
       </c>
-      <c r="D768" s="13">
-        <f>ABS(B768-C768)</f>
+      <c r="D768" s="8">
+        <f t="shared" si="0"/>
         <v>12684.14274009419</v>
       </c>
-      <c r="E768" s="14">
-        <f>ABS(B768-C768)/B768</f>
+      <c r="E768" s="9">
+        <f t="shared" si="1"/>
         <v>0.25822841204482999</v>
       </c>
-    </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A769" s="12">
+      <c r="F768" s="16">
+        <f t="shared" si="2"/>
+        <v>160887477.05108416</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" s="7">
         <v>44233</v>
       </c>
-      <c r="B769" s="13">
+      <c r="B769" s="8">
         <f>_xlfn.FORECAST.ETS(A769,$B$2:B768,$A$2:A768,7,1)</f>
         <v>50998.352152949337</v>
       </c>
-      <c r="C769" s="13">
+      <c r="C769" s="8">
         <v>53958</v>
       </c>
-      <c r="D769" s="13">
-        <f>ABS(B769-C769)</f>
+      <c r="D769" s="8">
+        <f t="shared" si="0"/>
         <v>2959.6478470506627</v>
       </c>
-      <c r="E769" s="14">
-        <f>ABS(B769-C769)/B769</f>
+      <c r="E769" s="9">
+        <f t="shared" si="1"/>
         <v>5.8034185853189382E-2</v>
       </c>
-    </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A770" s="12">
+      <c r="F769" s="16">
+        <f t="shared" si="2"/>
+        <v>8759515.3785516229</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" s="7">
         <v>44234</v>
       </c>
-      <c r="B770" s="13">
+      <c r="B770" s="8">
         <f>_xlfn.FORECAST.ETS(A770,$B$2:B769,$A$2:A769,7,1)</f>
         <v>39332.724133032934</v>
       </c>
-      <c r="C770" s="13">
+      <c r="C770" s="8">
         <v>33257</v>
       </c>
-      <c r="D770" s="13">
-        <f>ABS(B770-C770)</f>
+      <c r="D770" s="8">
+        <f t="shared" si="0"/>
         <v>6075.7241330329343</v>
       </c>
-      <c r="E770" s="14">
-        <f>ABS(B770-C770)/B770</f>
+      <c r="E770" s="9">
+        <f t="shared" si="1"/>
         <v>0.15446995515701742</v>
       </c>
-    </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="12">
+      <c r="F770" s="16">
+        <f t="shared" si="2"/>
+        <v>36914423.740718804</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="7">
         <v>44235</v>
       </c>
-      <c r="B771" s="13">
+      <c r="B771" s="8">
         <f>_xlfn.FORECAST.ETS(A771,$B$2:B770,$A$2:A770,7,1)</f>
         <v>43177.811099019178</v>
       </c>
-      <c r="C771" s="13">
+      <c r="C771" s="8">
         <v>42724</v>
       </c>
-      <c r="D771" s="13">
-        <f>ABS(B771-C771)</f>
+      <c r="D771" s="8">
+        <f t="shared" si="0"/>
         <v>453.81109901917807</v>
       </c>
-      <c r="E771" s="14">
-        <f>ABS(B771-C771)/B771</f>
+      <c r="E771" s="9">
+        <f t="shared" si="1"/>
         <v>1.0510284969714149E-2</v>
       </c>
-    </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A772" s="12">
+      <c r="F771" s="16">
+        <f t="shared" si="2"/>
+        <v>205944.51359299425</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" s="7">
         <v>44236</v>
       </c>
-      <c r="B772" s="13">
+      <c r="B772" s="8">
         <f>_xlfn.FORECAST.ETS(A772,$B$2:B771,$A$2:A771,7,1)</f>
         <v>59496.932105191467</v>
       </c>
-      <c r="C772" s="13">
+      <c r="C772" s="8">
         <v>57903</v>
       </c>
-      <c r="D772" s="13">
-        <f>ABS(B772-C772)</f>
+      <c r="D772" s="8">
+        <f t="shared" si="0"/>
         <v>1593.9321051914667</v>
       </c>
-      <c r="E772" s="14">
-        <f>ABS(B772-C772)/B772</f>
+      <c r="E772" s="9">
+        <f t="shared" si="1"/>
         <v>2.6790156211304657E-2</v>
       </c>
-    </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A773" s="12">
+      <c r="F772" s="16">
+        <f t="shared" si="2"/>
+        <v>2540619.5559601006</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="7">
         <v>44237</v>
       </c>
-      <c r="B773" s="13">
+      <c r="B773" s="8">
         <f>_xlfn.FORECAST.ETS(A773,$B$2:B772,$A$2:A772,7,1)</f>
         <v>54122.794520820928</v>
       </c>
-      <c r="C773" s="13">
+      <c r="C773" s="8">
         <v>63576</v>
       </c>
-      <c r="D773" s="13">
-        <f>ABS(B773-C773)</f>
+      <c r="D773" s="8">
+        <f t="shared" si="0"/>
         <v>9453.2054791790724</v>
       </c>
-      <c r="E773" s="14">
-        <f>ABS(B773-C773)/B773</f>
+      <c r="E773" s="9">
+        <f t="shared" si="1"/>
         <v>0.17466218370417744</v>
       </c>
-    </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A774" s="12">
+      <c r="F773" s="16">
+        <f t="shared" si="2"/>
+        <v>89363093.831581235</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" s="7">
         <v>44238</v>
       </c>
-      <c r="B774" s="13">
+      <c r="B774" s="8">
         <f>_xlfn.FORECAST.ETS(A774,$B$2:B773,$A$2:A773,7,1)</f>
         <v>55217.20598114367</v>
       </c>
-      <c r="C774" s="13">
+      <c r="C774" s="8">
         <v>58194</v>
       </c>
-      <c r="D774" s="13">
-        <f>ABS(B774-C774)</f>
+      <c r="D774" s="8">
+        <f t="shared" si="0"/>
         <v>2976.7940188563298</v>
       </c>
-      <c r="E774" s="14">
-        <f>ABS(B774-C774)/B774</f>
+      <c r="E774" s="9">
+        <f t="shared" si="1"/>
         <v>5.3910623798547254E-2</v>
       </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A775" s="12">
+      <c r="F774" s="16">
+        <f t="shared" si="2"/>
+        <v>8861302.6306988187</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="7">
         <v>44239</v>
       </c>
-      <c r="B775" s="13">
+      <c r="B775" s="8">
         <f>_xlfn.FORECAST.ETS(A775,$B$2:B774,$A$2:A774,7,1)</f>
         <v>46005.2610824929</v>
       </c>
-      <c r="C775" s="13">
+      <c r="C775" s="8">
         <v>46504</v>
       </c>
-      <c r="D775" s="13">
-        <f>ABS(B775-C775)</f>
+      <c r="D775" s="8">
+        <f t="shared" si="0"/>
         <v>498.73891750710027</v>
       </c>
-      <c r="E775" s="14">
-        <f>ABS(B775-C775)/B775</f>
+      <c r="E775" s="9">
+        <f t="shared" si="1"/>
         <v>1.0840910490928465E-2</v>
       </c>
-    </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A776" s="12">
+      <c r="F775" s="16">
+        <f t="shared" si="2"/>
+        <v>248740.50783615417</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="7">
         <v>44240</v>
       </c>
-      <c r="B776" s="13">
+      <c r="B776" s="8">
         <f>_xlfn.FORECAST.ETS(A776,$B$2:B775,$A$2:A775,7,1)</f>
         <v>47144.061264565091</v>
       </c>
-      <c r="C776" s="13">
+      <c r="C776" s="8">
         <v>48336</v>
       </c>
-      <c r="D776" s="13">
-        <f>ABS(B776-C776)</f>
+      <c r="D776" s="8">
+        <f t="shared" si="0"/>
         <v>1191.9387354349092</v>
       </c>
-      <c r="E776" s="14">
-        <f>ABS(B776-C776)/B776</f>
+      <c r="E776" s="9">
+        <f t="shared" si="1"/>
         <v>2.5282903158171621E-2</v>
       </c>
-    </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="12">
+      <c r="F776" s="16">
+        <f t="shared" si="2"/>
+        <v>1420717.9490301704</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="7">
         <v>44241</v>
       </c>
-      <c r="B777" s="13">
+      <c r="B777" s="8">
         <f>_xlfn.FORECAST.ETS(A777,$B$2:B776,$A$2:A776,7,1)</f>
         <v>35734.281714113953</v>
       </c>
-      <c r="C777" s="13">
+      <c r="C777" s="8">
         <v>38001</v>
       </c>
-      <c r="D777" s="13">
-        <f>ABS(B777-C777)</f>
+      <c r="D777" s="8">
+        <f t="shared" si="0"/>
         <v>2266.7182858860469</v>
       </c>
-      <c r="E777" s="14">
-        <f>ABS(B777-C777)/B777</f>
+      <c r="E777" s="9">
+        <f t="shared" si="1"/>
         <v>6.3432596855326248E-2</v>
       </c>
-    </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A778" s="12">
+      <c r="F777" s="16">
+        <f t="shared" si="2"/>
+        <v>5138011.7875701785</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="7">
         <v>44242</v>
       </c>
-      <c r="B778" s="13">
+      <c r="B778" s="8">
         <f>_xlfn.FORECAST.ETS(A778,$B$2:B777,$A$2:A777,7,1)</f>
         <v>39707.953325321949</v>
       </c>
-      <c r="C778" s="13">
+      <c r="C778" s="8">
         <v>45361</v>
       </c>
-      <c r="D778" s="13">
-        <f>ABS(B778-C778)</f>
+      <c r="D778" s="8">
+        <f t="shared" si="0"/>
         <v>5653.0466746780512</v>
       </c>
-      <c r="E778" s="14">
-        <f>ABS(B778-C778)/B778</f>
+      <c r="E778" s="9">
+        <f t="shared" si="1"/>
         <v>0.14236560188240871</v>
       </c>
-    </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A779" s="12">
+      <c r="F778" s="16">
+        <f t="shared" si="2"/>
+        <v>31956936.706088573</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" s="7">
         <v>44243</v>
       </c>
-      <c r="B779" s="13">
+      <c r="B779" s="8">
         <f>_xlfn.FORECAST.ETS(A779,$B$2:B778,$A$2:A778,7,1)</f>
         <v>60254.554265406689</v>
       </c>
-      <c r="C779" s="13">
+      <c r="C779" s="8">
         <v>56701</v>
       </c>
-      <c r="D779" s="13">
-        <f>ABS(B779-C779)</f>
+      <c r="D779" s="8">
+        <f t="shared" si="0"/>
         <v>3553.5542654066885</v>
       </c>
-      <c r="E779" s="14">
-        <f>ABS(B779-C779)/B779</f>
+      <c r="E779" s="9">
+        <f t="shared" si="1"/>
         <v>5.8975695841249516E-2</v>
       </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A780" s="12">
+      <c r="F779" s="16">
+        <f t="shared" si="2"/>
+        <v>12627747.917190069</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" s="7">
         <v>44244</v>
       </c>
-      <c r="B780" s="13">
+      <c r="B780" s="8">
         <f>_xlfn.FORECAST.ETS(A780,$B$2:B779,$A$2:A779,7,1)</f>
         <v>56443.519172241613</v>
       </c>
-      <c r="C780" s="13">
+      <c r="C780" s="8">
         <v>59862</v>
       </c>
-      <c r="D780" s="13">
-        <f>ABS(B780-C780)</f>
+      <c r="D780" s="8">
+        <f t="shared" si="0"/>
         <v>3418.480827758387</v>
       </c>
-      <c r="E780" s="14">
-        <f>ABS(B780-C780)/B780</f>
+      <c r="E780" s="9">
+        <f t="shared" si="1"/>
         <v>6.0564629525076873E-2</v>
       </c>
-    </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" s="12">
+      <c r="F780" s="16">
+        <f t="shared" si="2"/>
+        <v>11686011.169751666</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="7">
         <v>44245</v>
       </c>
-      <c r="B781" s="13">
+      <c r="B781" s="8">
         <f>_xlfn.FORECAST.ETS(A781,$B$2:B780,$A$2:A780,7,1)</f>
         <v>56386.42746382342</v>
       </c>
-      <c r="C781" s="13">
+      <c r="C781" s="8">
         <v>67458</v>
       </c>
-      <c r="D781" s="13">
-        <f>ABS(B781-C781)</f>
+      <c r="D781" s="8">
+        <f t="shared" si="0"/>
         <v>11071.57253617658</v>
       </c>
-      <c r="E781" s="14">
-        <f>ABS(B781-C781)/B781</f>
+      <c r="E781" s="9">
+        <f t="shared" si="1"/>
         <v>0.1963517292043358</v>
       </c>
-    </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" s="12">
+      <c r="F781" s="16">
+        <f t="shared" si="2"/>
+        <v>122579718.42381951</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="7">
         <v>44246</v>
       </c>
-      <c r="B782" s="13">
+      <c r="B782" s="8">
         <f>_xlfn.FORECAST.ETS(A782,$B$2:B781,$A$2:A781,7,1)</f>
         <v>45994.181581893004</v>
       </c>
-      <c r="C782" s="13">
+      <c r="C782" s="8">
         <v>63959</v>
       </c>
-      <c r="D782" s="13">
-        <f>ABS(B782-C782)</f>
+      <c r="D782" s="8">
+        <f t="shared" si="0"/>
         <v>17964.818418106996</v>
       </c>
-      <c r="E782" s="14">
-        <f>ABS(B782-C782)/B782</f>
+      <c r="E782" s="9">
+        <f t="shared" si="1"/>
         <v>0.39058893538784889</v>
       </c>
-    </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A783" s="12">
+      <c r="F782" s="16">
+        <f t="shared" si="2"/>
+        <v>322734700.79555631</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="7">
         <v>44247</v>
       </c>
-      <c r="B783" s="13">
+      <c r="B783" s="8">
         <f>_xlfn.FORECAST.ETS(A783,$B$2:B782,$A$2:A782,7,1)</f>
         <v>47132.925796388059</v>
       </c>
-      <c r="C783" s="13">
+      <c r="C783" s="8">
         <v>57908</v>
       </c>
-      <c r="D783" s="13">
-        <f>ABS(B783-C783)</f>
+      <c r="D783" s="8">
+        <f t="shared" si="0"/>
         <v>10775.074203611941</v>
       </c>
-      <c r="E783" s="14">
-        <f>ABS(B783-C783)/B783</f>
+      <c r="E783" s="9">
+        <f t="shared" si="1"/>
         <v>0.22861034025682461</v>
       </c>
-    </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A784" s="12">
+      <c r="F783" s="16">
+        <f t="shared" si="2"/>
+        <v>116102224.0933435</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="7">
         <v>44248</v>
       </c>
-      <c r="B784" s="13">
+      <c r="B784" s="8">
         <f>_xlfn.FORECAST.ETS(A784,$B$2:B783,$A$2:A783,7,1)</f>
         <v>35723.095764617981</v>
       </c>
-      <c r="C784" s="13">
+      <c r="C784" s="8">
         <v>48042</v>
       </c>
-      <c r="D784" s="13">
-        <f>ABS(B784-C784)</f>
+      <c r="D784" s="8">
+        <f t="shared" si="0"/>
         <v>12318.904235382019</v>
       </c>
-      <c r="E784" s="14">
-        <f>ABS(B784-C784)/B784</f>
+      <c r="E784" s="9">
+        <f t="shared" si="1"/>
         <v>0.34484425192464158</v>
       </c>
-    </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A785" s="12">
+      <c r="F784" s="16">
+        <f t="shared" si="2"/>
+        <v>151755401.56051305</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="7">
         <v>44249</v>
       </c>
-      <c r="B785" s="13">
+      <c r="B785" s="8">
         <f>_xlfn.FORECAST.ETS(A785,$B$2:B784,$A$2:A784,7,1)</f>
         <v>39696.718595097103</v>
       </c>
-      <c r="C785" s="13">
+      <c r="C785" s="8">
         <v>42987</v>
       </c>
-      <c r="D785" s="13">
-        <f>ABS(B785-C785)</f>
+      <c r="D785" s="8">
+        <f t="shared" si="0"/>
         <v>3290.2814049028966</v>
       </c>
-      <c r="E785" s="14">
-        <f>ABS(B785-C785)/B785</f>
+      <c r="E785" s="9">
+        <f t="shared" si="1"/>
         <v>8.2885475710561013E-2</v>
       </c>
-    </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A786" s="12">
+      <c r="F785" s="16">
+        <f t="shared" si="2"/>
+        <v>10825951.72344978</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="7">
         <v>44250</v>
       </c>
-      <c r="B786" s="13">
+      <c r="B786" s="8">
         <f>_xlfn.FORECAST.ETS(A786,$B$2:B785,$A$2:A785,7,1)</f>
         <v>60243.273816445202</v>
       </c>
-      <c r="C786" s="13">
+      <c r="C786" s="8">
         <v>40359</v>
       </c>
-      <c r="D786" s="13">
-        <f>ABS(B786-C786)</f>
+      <c r="D786" s="8">
+        <f t="shared" si="0"/>
         <v>19884.273816445202</v>
       </c>
-      <c r="E786" s="14">
-        <f>ABS(B786-C786)/B786</f>
+      <c r="E786" s="9">
+        <f t="shared" si="1"/>
         <v>0.3300662888446344</v>
       </c>
-    </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A787" s="12">
+      <c r="F786" s="16">
+        <f t="shared" si="2"/>
+        <v>395384345.20736825</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="7">
         <v>44251</v>
       </c>
-      <c r="B787" s="13">
+      <c r="B787" s="8">
         <f>_xlfn.FORECAST.ETS(A787,$B$2:B786,$A$2:A786,7,1)</f>
         <v>56432.196404783579</v>
       </c>
-      <c r="C787" s="13">
+      <c r="C787" s="8">
         <v>40768</v>
       </c>
-      <c r="D787" s="13">
-        <f>ABS(B787-C787)</f>
+      <c r="D787" s="8">
+        <f t="shared" si="0"/>
         <v>15664.196404783579</v>
       </c>
-      <c r="E787" s="14">
-        <f>ABS(B787-C787)/B787</f>
+      <c r="E787" s="9">
+        <f t="shared" si="1"/>
         <v>0.27757552253372464</v>
       </c>
-    </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A788" s="12">
+      <c r="F787" s="16">
+        <f t="shared" si="2"/>
+        <v>245367049.00763482</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="7">
         <v>44252</v>
       </c>
-      <c r="B788" s="13">
+      <c r="B788" s="8">
         <f>_xlfn.FORECAST.ETS(A788,$B$2:B787,$A$2:A787,7,1)</f>
         <v>56375.058377009715</v>
       </c>
-      <c r="C788" s="13">
+      <c r="C788" s="8">
         <v>55624</v>
       </c>
-      <c r="D788" s="13">
-        <f>ABS(B788-C788)</f>
+      <c r="D788" s="8">
+        <f t="shared" si="0"/>
         <v>751.0583770097146</v>
       </c>
-      <c r="E788" s="14">
-        <f>ABS(B788-C788)/B788</f>
+      <c r="E788" s="9">
+        <f t="shared" si="1"/>
         <v>1.3322529477255554E-2</v>
       </c>
-    </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A789" s="12">
+      <c r="F788" s="16">
+        <f t="shared" si="2"/>
+        <v>564088.68567646656</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" s="7">
         <v>44253</v>
       </c>
-      <c r="B789" s="13">
+      <c r="B789" s="8">
         <f>_xlfn.FORECAST.ETS(A789,$B$2:B788,$A$2:A788,7,1)</f>
         <v>45982.771009282573</v>
       </c>
-      <c r="C789" s="13">
+      <c r="C789" s="8">
         <v>59869</v>
       </c>
-      <c r="D789" s="13">
-        <f>ABS(B789-C789)</f>
+      <c r="D789" s="8">
+        <f t="shared" si="0"/>
         <v>13886.228990717427</v>
       </c>
-      <c r="E789" s="14">
-        <f>ABS(B789-C789)/B789</f>
+      <c r="E789" s="9">
+        <f t="shared" si="1"/>
         <v>0.30198765072061895</v>
       </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A790" s="12">
+      <c r="F789" s="16">
+        <f t="shared" si="2"/>
+        <v>192827355.58264112</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" s="7">
         <v>44254</v>
       </c>
-      <c r="B790" s="13">
+      <c r="B790" s="8">
         <f>_xlfn.FORECAST.ETS(A790,$B$2:B789,$A$2:A789,7,1)</f>
         <v>47121.4624420443</v>
       </c>
-      <c r="C790" s="13">
+      <c r="C790" s="8">
         <v>52931</v>
       </c>
-      <c r="D790" s="13">
-        <f>ABS(B790-C790)</f>
+      <c r="D790" s="8">
+        <f t="shared" si="0"/>
         <v>5809.5375579557003</v>
       </c>
-      <c r="E790" s="14">
-        <f>ABS(B790-C790)/B790</f>
+      <c r="E790" s="9">
+        <f t="shared" si="1"/>
         <v>0.12328856654440587</v>
       </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A791" s="12">
+      <c r="F790" s="16">
+        <f t="shared" si="2"/>
+        <v>33750726.637297884</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="7">
         <v>44255</v>
       </c>
-      <c r="B791" s="13">
+      <c r="B791" s="8">
         <f>_xlfn.FORECAST.ETS(A791,$B$2:B790,$A$2:A790,7,1)</f>
         <v>35711.584877808389</v>
       </c>
-      <c r="C791" s="13">
+      <c r="C791" s="8">
         <v>41126</v>
       </c>
-      <c r="D791" s="13">
-        <f>ABS(B791-C791)</f>
+      <c r="D791" s="8">
+        <f t="shared" si="0"/>
         <v>5414.4151221916109</v>
       </c>
-      <c r="E791" s="14">
-        <f>ABS(B791-C791)/B791</f>
+      <c r="E791" s="9">
+        <f t="shared" si="1"/>
         <v>0.1516150890731314</v>
       </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A792" s="12">
+      <c r="F791" s="16">
+        <f t="shared" si="2"/>
+        <v>29315891.115417197</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="7">
         <v>44256</v>
       </c>
-      <c r="B792" s="13">
+      <c r="B792" s="8">
         <f>_xlfn.FORECAST.ETS(A792,$B$2:B791,$A$2:A791,7,1)</f>
         <v>39685.161796144697</v>
       </c>
-      <c r="C792" s="13">
+      <c r="C792" s="8">
         <v>40545</v>
       </c>
-      <c r="D792" s="13">
-        <f>ABS(B792-C792)</f>
+      <c r="D792" s="8">
+        <f t="shared" si="0"/>
         <v>859.83820385530271</v>
       </c>
-      <c r="E792" s="14">
-        <f>ABS(B792-C792)/B792</f>
+      <c r="E792" s="9">
+        <f t="shared" si="1"/>
         <v>2.1666491074727925E-2</v>
       </c>
-    </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A793" s="12">
+      <c r="F792" s="16">
+        <f t="shared" si="2"/>
+        <v>739321.73680911306</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" s="7">
         <v>44257</v>
       </c>
-      <c r="B793" s="13">
+      <c r="B793" s="8">
         <f>_xlfn.FORECAST.ETS(A793,$B$2:B792,$A$2:A792,7,1)</f>
         <v>60231.67403176675</v>
       </c>
-      <c r="C793" s="13">
+      <c r="C793" s="8">
         <v>60325</v>
       </c>
-      <c r="D793" s="13">
-        <f>ABS(B793-C793)</f>
+      <c r="D793" s="8">
+        <f t="shared" si="0"/>
         <v>93.325968233250023</v>
       </c>
-      <c r="E793" s="14">
-        <f>ABS(B793-C793)/B793</f>
+      <c r="E793" s="9">
+        <f t="shared" si="1"/>
         <v>1.5494500150208183E-3</v>
       </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A794" s="12">
+      <c r="F793" s="16">
+        <f t="shared" si="2"/>
+        <v>8709.7363466735933</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" s="7">
         <v>44258</v>
       </c>
-      <c r="B794" s="13">
+      <c r="B794" s="8">
         <f>_xlfn.FORECAST.ETS(A794,$B$2:B793,$A$2:A793,7,1)</f>
         <v>56420.556886073908</v>
       </c>
-      <c r="C794" s="13">
+      <c r="C794" s="8">
         <v>71061</v>
       </c>
-      <c r="D794" s="13">
-        <f>ABS(B794-C794)</f>
+      <c r="D794" s="8">
+        <f t="shared" si="0"/>
         <v>14640.443113926092</v>
       </c>
-      <c r="E794" s="14">
-        <f>ABS(B794-C794)/B794</f>
+      <c r="E794" s="9">
+        <f t="shared" si="1"/>
         <v>0.2594877456365508</v>
       </c>
-    </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A795" s="12">
+      <c r="F794" s="16">
+        <f t="shared" si="2"/>
+        <v>214342574.57210594</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="7">
         <v>44259</v>
       </c>
-      <c r="B795" s="13">
+      <c r="B795" s="8">
         <f>_xlfn.FORECAST.ETS(A795,$B$2:B794,$A$2:A794,7,1)</f>
         <v>56363.37527880766</v>
       </c>
-      <c r="C795" s="13">
+      <c r="C795" s="8">
         <v>45670</v>
       </c>
-      <c r="D795" s="13">
-        <f>ABS(B795-C795)</f>
+      <c r="D795" s="8">
+        <f t="shared" si="0"/>
         <v>10693.37527880766</v>
       </c>
-      <c r="E795" s="14">
-        <f>ABS(B795-C795)/B795</f>
+      <c r="E795" s="9">
+        <f t="shared" si="1"/>
         <v>0.18972205312247001</v>
       </c>
-    </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A796" s="12">
+      <c r="F795" s="16">
+        <f t="shared" si="2"/>
+        <v>114348274.8534148</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="7">
         <v>44260</v>
       </c>
-      <c r="B796" s="13">
+      <c r="B796" s="8">
         <f>_xlfn.FORECAST.ETS(A796,$B$2:B795,$A$2:A795,7,1)</f>
         <v>45971.048957986117</v>
       </c>
-      <c r="C796" s="13">
+      <c r="C796" s="8">
         <v>54488</v>
       </c>
-      <c r="D796" s="13">
-        <f>ABS(B796-C796)</f>
+      <c r="D796" s="8">
+        <f t="shared" ref="D796:D827" si="3">ABS(B796-C796)</f>
         <v>8516.9510420138831</v>
       </c>
-      <c r="E796" s="14">
-        <f>ABS(B796-C796)/B796</f>
+      <c r="E796" s="9">
+        <f t="shared" ref="E796:E816" si="4">ABS(B796-C796)/B796</f>
         <v>0.18526771163733285</v>
       </c>
-    </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="12">
+      <c r="F796" s="16">
+        <f t="shared" si="2"/>
+        <v>72538455.052061364</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="7">
         <v>44261</v>
       </c>
-      <c r="B797" s="13">
+      <c r="B797" s="8">
         <f>_xlfn.FORECAST.ETS(A797,$B$2:B796,$A$2:A796,7,1)</f>
         <v>47109.69059552066</v>
       </c>
-      <c r="C797" s="13">
+      <c r="C797" s="8">
         <v>52084</v>
       </c>
-      <c r="D797" s="13">
-        <f>ABS(B797-C797)</f>
+      <c r="D797" s="8">
+        <f t="shared" si="3"/>
         <v>4974.3094044793397</v>
       </c>
-      <c r="E797" s="14">
-        <f>ABS(B797-C797)/B797</f>
+      <c r="E797" s="9">
+        <f t="shared" si="4"/>
         <v>0.1055899400229199</v>
       </c>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A798" s="12">
+      <c r="F797" s="16">
+        <f t="shared" si="2"/>
+        <v>24743754.051491603</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" s="7">
         <v>44262</v>
       </c>
-      <c r="B798" s="13">
+      <c r="B798" s="8">
         <f>_xlfn.FORECAST.ETS(A798,$B$2:B797,$A$2:A797,7,1)</f>
         <v>35699.768259657285</v>
       </c>
-      <c r="C798" s="13">
+      <c r="C798" s="8">
         <v>27110</v>
       </c>
-      <c r="D798" s="13">
-        <f>ABS(B798-C798)</f>
+      <c r="D798" s="8">
+        <f t="shared" si="3"/>
         <v>8589.7682596572849</v>
       </c>
-      <c r="E798" s="14">
-        <f>ABS(B798-C798)/B798</f>
+      <c r="E798" s="9">
+        <f t="shared" si="4"/>
         <v>0.24061131705900171</v>
       </c>
-    </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A799" s="12">
+      <c r="F798" s="16">
+        <f t="shared" si="2"/>
+        <v>73784118.754615739</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" s="7">
         <v>44263</v>
       </c>
-      <c r="B799" s="13">
+      <c r="B799" s="8">
         <f>_xlfn.FORECAST.ETS(A799,$B$2:B798,$A$2:A798,7,1)</f>
         <v>39673.301950718116</v>
       </c>
-      <c r="C799" s="13">
+      <c r="C799" s="8">
         <v>24506</v>
       </c>
-      <c r="D799" s="13">
-        <f>ABS(B799-C799)</f>
+      <c r="D799" s="8">
+        <f t="shared" si="3"/>
         <v>15167.301950718116</v>
       </c>
-      <c r="E799" s="14">
-        <f>ABS(B799-C799)/B799</f>
+      <c r="E799" s="9">
+        <f t="shared" si="4"/>
         <v>0.38230500626236824</v>
       </c>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A800" s="12">
+      <c r="F799" s="16">
+        <f t="shared" si="2"/>
+        <v>230047048.46425757</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" s="7">
         <v>44264</v>
       </c>
-      <c r="B800" s="13">
+      <c r="B800" s="8">
         <f>_xlfn.FORECAST.ETS(A800,$B$2:B799,$A$2:A799,7,1)</f>
         <v>60219.773756620678</v>
       </c>
-      <c r="C800" s="13">
+      <c r="C800" s="8">
         <v>32587</v>
       </c>
-      <c r="D800" s="13">
-        <f>ABS(B800-C800)</f>
+      <c r="D800" s="8">
+        <f t="shared" si="3"/>
         <v>27632.773756620678</v>
       </c>
-      <c r="E800" s="14">
-        <f>ABS(B800-C800)/B800</f>
+      <c r="E800" s="9">
+        <f t="shared" si="4"/>
         <v>0.45886545287099617</v>
       </c>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A801" s="12">
+      <c r="F800" s="16">
+        <f t="shared" si="2"/>
+        <v>763570185.48458445</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" s="7">
         <v>44265</v>
       </c>
-      <c r="B801" s="13">
+      <c r="B801" s="8">
         <f>_xlfn.FORECAST.ETS(A801,$B$2:B800,$A$2:A800,7,1)</f>
         <v>56408.619291594892</v>
       </c>
-      <c r="C801" s="13">
+      <c r="C801" s="8">
         <v>51739</v>
       </c>
-      <c r="D801" s="13">
-        <f>ABS(B801-C801)</f>
+      <c r="D801" s="8">
+        <f t="shared" si="3"/>
         <v>4669.6192915948923</v>
       </c>
-      <c r="E801" s="14">
-        <f>ABS(B801-C801)/B801</f>
+      <c r="E801" s="9">
+        <f t="shared" si="4"/>
         <v>8.2782017185282955E-2</v>
       </c>
-    </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A802" s="12">
+      <c r="F801" s="16">
+        <f t="shared" si="2"/>
+        <v>21805344.328435183</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="7">
         <v>44266</v>
       </c>
-      <c r="B802" s="13">
+      <c r="B802" s="8">
         <f>_xlfn.FORECAST.ETS(A802,$B$2:B801,$A$2:A801,7,1)</f>
         <v>56351.396668678753</v>
       </c>
-      <c r="C802" s="13">
+      <c r="C802" s="8">
         <v>56166</v>
       </c>
-      <c r="D802" s="13">
-        <f>ABS(B802-C802)</f>
+      <c r="D802" s="8">
+        <f t="shared" si="3"/>
         <v>185.39666867875349</v>
       </c>
-      <c r="E802" s="14">
-        <f>ABS(B802-C802)/B802</f>
+      <c r="E802" s="9">
+        <f t="shared" si="4"/>
         <v>3.2900101796731634E-3</v>
       </c>
-    </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A803" s="12">
+      <c r="F802" s="16">
+        <f t="shared" si="2"/>
+        <v>34371.924757179491</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="7">
         <v>44267</v>
       </c>
-      <c r="B803" s="13">
+      <c r="B803" s="8">
         <f>_xlfn.FORECAST.ETS(A803,$B$2:B802,$A$2:A802,7,1)</f>
         <v>45959.033761264363</v>
       </c>
-      <c r="C803" s="13">
+      <c r="C803" s="8">
         <v>47222</v>
       </c>
-      <c r="D803" s="13">
-        <f>ABS(B803-C803)</f>
+      <c r="D803" s="8">
+        <f t="shared" si="3"/>
         <v>1262.9662387356366</v>
       </c>
-      <c r="E803" s="14">
-        <f>ABS(B803-C803)/B803</f>
+      <c r="E803" s="9">
+        <f t="shared" si="4"/>
         <v>2.748026090574824E-2</v>
       </c>
-    </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="12">
+      <c r="F803" s="16">
+        <f t="shared" si="2"/>
+        <v>1595083.720186041</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="7">
         <v>44268</v>
       </c>
-      <c r="B804" s="13">
+      <c r="B804" s="8">
         <f>_xlfn.FORECAST.ETS(A804,$B$2:B803,$A$2:A803,7,1)</f>
         <v>47097.628404440256</v>
       </c>
-      <c r="C804" s="13">
+      <c r="C804" s="8">
         <v>47753</v>
       </c>
-      <c r="D804" s="13">
-        <f>ABS(B804-C804)</f>
+      <c r="D804" s="8">
+        <f t="shared" si="3"/>
         <v>655.37159555974358</v>
       </c>
-      <c r="E804" s="14">
-        <f>ABS(B804-C804)/B804</f>
+      <c r="E804" s="9">
+        <f t="shared" si="4"/>
         <v>1.3915171904875717E-2</v>
       </c>
-    </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A805" s="12">
+      <c r="F804" s="16">
+        <f t="shared" si="2"/>
+        <v>429511.9282665241</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="7">
         <v>44269</v>
       </c>
-      <c r="B805" s="13">
+      <c r="B805" s="8">
         <f>_xlfn.FORECAST.ETS(A805,$B$2:B804,$A$2:A804,7,1)</f>
         <v>35687.66388286541</v>
       </c>
-      <c r="C805" s="13">
+      <c r="C805" s="8">
         <v>32230</v>
       </c>
-      <c r="D805" s="13">
-        <f>ABS(B805-C805)</f>
+      <c r="D805" s="8">
+        <f t="shared" si="3"/>
         <v>3457.6638828654104</v>
       </c>
-      <c r="E805" s="14">
-        <f>ABS(B805-C805)/B805</f>
+      <c r="E805" s="9">
+        <f t="shared" si="4"/>
         <v>9.6886809240700283E-2</v>
       </c>
-    </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="12">
+      <c r="F805" s="16">
+        <f t="shared" si="2"/>
+        <v>11955439.526871907</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="7">
         <v>44270</v>
       </c>
-      <c r="B806" s="13">
+      <c r="B806" s="8">
         <f>_xlfn.FORECAST.ETS(A806,$B$2:B805,$A$2:A805,7,1)</f>
         <v>39661.15686062842</v>
       </c>
-      <c r="C806" s="13">
+      <c r="C806" s="8">
         <v>34724</v>
       </c>
-      <c r="D806" s="13">
-        <f>ABS(B806-C806)</f>
+      <c r="D806" s="8">
+        <f t="shared" si="3"/>
         <v>4937.15686062842</v>
       </c>
-      <c r="E806" s="14">
-        <f>ABS(B806-C806)/B806</f>
+      <c r="E806" s="9">
+        <f t="shared" si="4"/>
         <v>0.12448343042483286</v>
       </c>
-    </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A807" s="12">
+      <c r="F806" s="16">
+        <f t="shared" si="2"/>
+        <v>24375517.866450276</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="7">
         <v>44271</v>
       </c>
-      <c r="B807" s="13">
+      <c r="B807" s="8">
         <f>_xlfn.FORECAST.ETS(A807,$B$2:B806,$A$2:A806,7,1)</f>
         <v>60207.59062826509</v>
       </c>
-      <c r="C807" s="13">
+      <c r="C807" s="8">
         <v>50287</v>
       </c>
-      <c r="D807" s="13">
-        <f>ABS(B807-C807)</f>
+      <c r="D807" s="8">
+        <f t="shared" si="3"/>
         <v>9920.5906282650903</v>
       </c>
-      <c r="E807" s="14">
-        <f>ABS(B807-C807)/B807</f>
+      <c r="E807" s="9">
+        <f t="shared" si="4"/>
         <v>0.16477308799013399</v>
       </c>
-    </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A808" s="12">
+      <c r="F807" s="16">
+        <f t="shared" si="2"/>
+        <v>98418118.413621143</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="7">
         <v>44272</v>
       </c>
-      <c r="B808" s="13">
+      <c r="B808" s="8">
         <f>_xlfn.FORECAST.ETS(A808,$B$2:B807,$A$2:A807,7,1)</f>
         <v>56396.401100888696</v>
       </c>
-      <c r="C808" s="13">
+      <c r="C808" s="8">
         <v>45128</v>
       </c>
-      <c r="D808" s="13">
-        <f>ABS(B808-C808)</f>
+      <c r="D808" s="8">
+        <f t="shared" si="3"/>
         <v>11268.401100888696</v>
       </c>
-      <c r="E808" s="14">
-        <f>ABS(B808-C808)/B808</f>
+      <c r="E808" s="9">
+        <f t="shared" si="4"/>
         <v>0.19980709550473652</v>
       </c>
-    </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A809" s="12">
+      <c r="F808" s="16">
+        <f t="shared" si="2"/>
+        <v>126976863.37050956</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="7">
         <v>44273</v>
       </c>
-      <c r="B809" s="13">
+      <c r="B809" s="8">
         <f>_xlfn.FORECAST.ETS(A809,$B$2:B808,$A$2:A808,7,1)</f>
         <v>56339.139862448537</v>
       </c>
-      <c r="C809" s="13">
+      <c r="C809" s="8">
         <v>50346</v>
       </c>
-      <c r="D809" s="13">
-        <f>ABS(B809-C809)</f>
+      <c r="D809" s="8">
+        <f t="shared" si="3"/>
         <v>5993.1398624485373</v>
       </c>
-      <c r="E809" s="14">
-        <f>ABS(B809-C809)/B809</f>
+      <c r="E809" s="9">
+        <f t="shared" si="4"/>
         <v>0.10637613348518862</v>
       </c>
-    </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="12">
+      <c r="F809" s="16">
+        <f t="shared" si="2"/>
+        <v>35917725.410869673</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="7">
         <v>44274</v>
       </c>
-      <c r="B810" s="13">
+      <c r="B810" s="8">
         <f>_xlfn.FORECAST.ETS(A810,$B$2:B809,$A$2:A809,7,1)</f>
         <v>45946.742580522739</v>
       </c>
-      <c r="C810" s="13">
+      <c r="C810" s="8">
         <v>49870</v>
       </c>
-      <c r="D810" s="13">
-        <f>ABS(B810-C810)</f>
+      <c r="D810" s="8">
+        <f t="shared" si="3"/>
         <v>3923.2574194772606</v>
       </c>
-      <c r="E810" s="14">
-        <f>ABS(B810-C810)/B810</f>
+      <c r="E810" s="9">
+        <f t="shared" si="4"/>
         <v>8.5387063350609901E-2</v>
       </c>
-    </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="12">
+      <c r="F810" s="16">
+        <f t="shared" si="2"/>
+        <v>15391948.779483374</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="7">
         <v>44275</v>
       </c>
-      <c r="B811" s="13">
+      <c r="B811" s="8">
         <f>_xlfn.FORECAST.ETS(A811,$B$2:B810,$A$2:A810,7,1)</f>
         <v>47085.292857239321</v>
       </c>
-      <c r="C811" s="13">
+      <c r="C811" s="8">
         <v>48241</v>
       </c>
-      <c r="D811" s="13">
-        <f>ABS(B811-C811)</f>
+      <c r="D811" s="8">
+        <f t="shared" si="3"/>
         <v>1155.7071427606788</v>
       </c>
-      <c r="E811" s="14">
-        <f>ABS(B811-C811)/B811</f>
+      <c r="E811" s="9">
+        <f t="shared" si="4"/>
         <v>2.4544970894940284E-2</v>
       </c>
-    </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A812" s="12">
+      <c r="F811" s="16">
+        <f t="shared" si="2"/>
+        <v>1335658.999828052</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="7">
         <v>44276</v>
       </c>
-      <c r="B812" s="13">
+      <c r="B812" s="8">
         <f>_xlfn.FORECAST.ETS(A812,$B$2:B811,$A$2:A811,7,1)</f>
         <v>35675.288573044323</v>
       </c>
-      <c r="C812" s="13">
+      <c r="C812" s="8">
         <v>32933</v>
       </c>
-      <c r="D812" s="13">
-        <f>ABS(B812-C812)</f>
+      <c r="D812" s="8">
+        <f t="shared" si="3"/>
         <v>2742.2885730443231</v>
       </c>
-      <c r="E812" s="14">
-        <f>ABS(B812-C812)/B812</f>
+      <c r="E812" s="9">
+        <f t="shared" si="4"/>
         <v>7.6868013763351936E-2</v>
       </c>
-    </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A813" s="12">
+      <c r="F812" s="16">
+        <f t="shared" si="2"/>
+        <v>7520146.6178494701</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" s="7">
         <v>44277</v>
       </c>
-      <c r="B813" s="13">
+      <c r="B813" s="8">
         <f>_xlfn.FORECAST.ETS(A813,$B$2:B812,$A$2:A812,7,1)</f>
         <v>39648.743192450456</v>
       </c>
-      <c r="C813" s="13">
+      <c r="C813" s="8">
         <v>32961</v>
       </c>
-      <c r="D813" s="13">
-        <f>ABS(B813-C813)</f>
+      <c r="D813" s="8">
+        <f t="shared" si="3"/>
         <v>6687.7431924504563</v>
       </c>
-      <c r="E813" s="14">
-        <f>ABS(B813-C813)/B813</f>
+      <c r="E813" s="9">
+        <f t="shared" si="4"/>
         <v>0.16867478396449836</v>
       </c>
-    </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A814" s="12">
+      <c r="F813" s="16">
+        <f t="shared" si="2"/>
+        <v>44725909.008167423</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" s="7">
         <v>44278</v>
       </c>
-      <c r="B814" s="13">
+      <c r="B814" s="8">
         <f>_xlfn.FORECAST.ETS(A814,$B$2:B813,$A$2:A813,7,1)</f>
         <v>60195.141160221101</v>
       </c>
-      <c r="C814" s="13">
+      <c r="C814" s="8">
         <v>45396</v>
       </c>
-      <c r="D814" s="13">
-        <f>ABS(B814-C814)</f>
+      <c r="D814" s="8">
+        <f t="shared" si="3"/>
         <v>14799.141160221101</v>
       </c>
-      <c r="E814" s="14">
-        <f>ABS(B814-C814)/B814</f>
+      <c r="E814" s="9">
+        <f t="shared" si="4"/>
         <v>0.24585275281322627</v>
       </c>
-    </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A815" s="12">
+      <c r="F814" s="16">
+        <f t="shared" si="2"/>
+        <v>219014579.08015037</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815" s="7">
         <v>44279</v>
       </c>
-      <c r="B815" s="13">
+      <c r="B815" s="8">
         <f>_xlfn.FORECAST.ETS(A815,$B$2:B814,$A$2:A814,7,1)</f>
         <v>56383.918680885254</v>
       </c>
-      <c r="C815" s="13">
+      <c r="C815" s="8">
         <v>48169</v>
       </c>
-      <c r="D815" s="13">
-        <f>ABS(B815-C815)</f>
+      <c r="D815" s="8">
+        <f t="shared" si="3"/>
         <v>8214.9186808852537</v>
       </c>
-      <c r="E815" s="14">
-        <f>ABS(B815-C815)/B815</f>
+      <c r="E815" s="9">
+        <f t="shared" si="4"/>
         <v>0.14569612884445007</v>
       </c>
-    </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A816" s="12"/>
-      <c r="B816" s="15">
+      <c r="F815" s="16">
+        <f t="shared" si="2"/>
+        <v>67484888.93355751</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="7"/>
+      <c r="B816" s="10">
         <f>SUM(B764:B815)</f>
         <v>2568191.8903322164</v>
       </c>
-      <c r="C816" s="15">
+      <c r="C816" s="10">
         <f>SUM(C764:C815)</f>
         <v>2549577</v>
       </c>
-      <c r="D816" s="15">
-        <f>ABS(B816-C816)</f>
+      <c r="D816" s="10">
+        <f t="shared" si="3"/>
         <v>18614.890332216397</v>
       </c>
-      <c r="E816" s="16">
-        <f>ABS(B816-C816)/B816</f>
+      <c r="E816" s="11">
+        <f t="shared" si="4"/>
         <v>7.2482474546745846E-3</v>
+      </c>
+      <c r="F816" s="17">
+        <f>(B816-C816)^2</f>
+        <v>346514142.0804435</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
